--- a/tests/bin/OpenRefine_exports/2_JR1_17-18.xlsx
+++ b/tests/bin/OpenRefine_exports/2_JR1_17-18.xlsx
@@ -168,7 +168,7 @@
         </is>
       </c>
       <c r="J2" s="1" t="n">
-        <v>42917.208333333336</v>
+        <v>42917.0</v>
       </c>
       <c r="K2" t="n">
         <v>6.0</v>
@@ -221,7 +221,7 @@
         </is>
       </c>
       <c r="J3" s="1" t="n">
-        <v>42948.208333333336</v>
+        <v>42948.0</v>
       </c>
       <c r="K3" t="n">
         <v>1.0</v>
@@ -274,7 +274,7 @@
         </is>
       </c>
       <c r="J4" s="1" t="n">
-        <v>42979.208333333336</v>
+        <v>42979.0</v>
       </c>
       <c r="K4" t="n">
         <v>7.0</v>
@@ -327,7 +327,7 @@
         </is>
       </c>
       <c r="J5" s="1" t="n">
-        <v>43009.208333333336</v>
+        <v>43009.0</v>
       </c>
       <c r="K5" t="n">
         <v>3.0</v>
@@ -380,7 +380,7 @@
         </is>
       </c>
       <c r="J6" s="1" t="n">
-        <v>43040.208333333336</v>
+        <v>43040.0</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -433,7 +433,7 @@
         </is>
       </c>
       <c r="J7" s="1" t="n">
-        <v>43070.208333333336</v>
+        <v>43070.0</v>
       </c>
       <c r="K7" t="n">
         <v>1.0</v>
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="J8" s="1" t="n">
-        <v>43101.208333333336</v>
+        <v>43101.0</v>
       </c>
       <c r="K8" t="n">
         <v>4.0</v>
@@ -539,7 +539,7 @@
         </is>
       </c>
       <c r="J9" s="1" t="n">
-        <v>43132.208333333336</v>
+        <v>43132.0</v>
       </c>
       <c r="K9" t="n">
         <v>6.0</v>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="J10" s="1" t="n">
-        <v>43160.208333333336</v>
+        <v>43160.0</v>
       </c>
       <c r="K10" t="n">
         <v>5.0</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J11" s="1" t="n">
-        <v>43191.208333333336</v>
+        <v>43191.0</v>
       </c>
       <c r="K11" t="n">
         <v>10.0</v>
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="J12" s="1" t="n">
-        <v>43221.208333333336</v>
+        <v>43221.0</v>
       </c>
       <c r="K12" t="n">
         <v>2.0</v>
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="J13" s="1" t="n">
-        <v>43252.208333333336</v>
+        <v>43252.0</v>
       </c>
       <c r="K13" t="n">
         <v>4.0</v>
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="J14" s="1" t="n">
-        <v>42917.208333333336</v>
+        <v>42917.0</v>
       </c>
       <c r="K14" t="n">
         <v>1.0</v>
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="J15" s="1" t="n">
-        <v>42948.208333333336</v>
+        <v>42948.0</v>
       </c>
       <c r="K15" t="n">
         <v>1.0</v>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="J16" s="1" t="n">
-        <v>42979.208333333336</v>
+        <v>42979.0</v>
       </c>
       <c r="K16" t="n">
         <v>1.0</v>
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="J17" s="1" t="n">
-        <v>43009.208333333336</v>
+        <v>43009.0</v>
       </c>
       <c r="K17" t="n">
         <v>1.0</v>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="J18" s="1" t="n">
-        <v>43040.208333333336</v>
+        <v>43040.0</v>
       </c>
       <c r="K18" t="n">
         <v>1.0</v>
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="J19" s="1" t="n">
-        <v>43070.208333333336</v>
+        <v>43070.0</v>
       </c>
       <c r="K19" t="n">
         <v>1.0</v>
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="J20" s="1" t="n">
-        <v>43101.208333333336</v>
+        <v>43101.0</v>
       </c>
       <c r="K20" t="n">
         <v>1.0</v>
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="J21" s="1" t="n">
-        <v>43132.208333333336</v>
+        <v>43132.0</v>
       </c>
       <c r="K21" t="n">
         <v>5.0</v>
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="J22" s="1" t="n">
-        <v>43160.208333333336</v>
+        <v>43160.0</v>
       </c>
       <c r="K22" t="n">
         <v>4.0</v>
@@ -1281,7 +1281,7 @@
         </is>
       </c>
       <c r="J23" s="1" t="n">
-        <v>43191.208333333336</v>
+        <v>43191.0</v>
       </c>
       <c r="K23" t="n">
         <v>4.0</v>
@@ -1334,7 +1334,7 @@
         </is>
       </c>
       <c r="J24" s="1" t="n">
-        <v>43221.208333333336</v>
+        <v>43221.0</v>
       </c>
       <c r="K24" t="n">
         <v>1.0</v>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="J25" s="1" t="n">
-        <v>43252.208333333336</v>
+        <v>43252.0</v>
       </c>
       <c r="K25" t="n">
         <v>1.0</v>
@@ -1440,7 +1440,7 @@
         </is>
       </c>
       <c r="J26" s="1" t="n">
-        <v>42917.208333333336</v>
+        <v>42917.0</v>
       </c>
       <c r="K26" t="n">
         <v>14.0</v>
@@ -1493,7 +1493,7 @@
         </is>
       </c>
       <c r="J27" s="1" t="n">
-        <v>42948.208333333336</v>
+        <v>42948.0</v>
       </c>
       <c r="K27" t="n">
         <v>4.0</v>
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="J28" s="1" t="n">
-        <v>42979.208333333336</v>
+        <v>42979.0</v>
       </c>
       <c r="K28" t="n">
         <v>2.0</v>
@@ -1599,7 +1599,7 @@
         </is>
       </c>
       <c r="J29" s="1" t="n">
-        <v>43009.208333333336</v>
+        <v>43009.0</v>
       </c>
       <c r="K29" t="n">
         <v>8.0</v>
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="J30" s="1" t="n">
-        <v>43040.208333333336</v>
+        <v>43040.0</v>
       </c>
       <c r="K30" t="n">
         <v>4.0</v>
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="J31" s="1" t="n">
-        <v>43070.208333333336</v>
+        <v>43070.0</v>
       </c>
       <c r="K31" t="n">
         <v>10.0</v>
@@ -1758,7 +1758,7 @@
         </is>
       </c>
       <c r="J32" s="1" t="n">
-        <v>43101.208333333336</v>
+        <v>43101.0</v>
       </c>
       <c r="K32" t="n">
         <v>1.0</v>
@@ -1811,7 +1811,7 @@
         </is>
       </c>
       <c r="J33" s="1" t="n">
-        <v>43132.208333333336</v>
+        <v>43132.0</v>
       </c>
       <c r="K33" t="n">
         <v>9.0</v>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="J34" s="1" t="n">
-        <v>43160.208333333336</v>
+        <v>43160.0</v>
       </c>
       <c r="K34" t="n">
         <v>6.0</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="J35" s="1" t="n">
-        <v>43191.208333333336</v>
+        <v>43191.0</v>
       </c>
       <c r="K35" t="n">
         <v>8.0</v>
@@ -1970,7 +1970,7 @@
         </is>
       </c>
       <c r="J36" s="1" t="n">
-        <v>43221.208333333336</v>
+        <v>43221.0</v>
       </c>
       <c r="K36" t="n">
         <v>2.0</v>
@@ -2023,7 +2023,7 @@
         </is>
       </c>
       <c r="J37" s="1" t="n">
-        <v>43252.208333333336</v>
+        <v>43252.0</v>
       </c>
       <c r="K37" t="n">
         <v>1.0</v>
